--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9324434232595856</v>
+        <v>0.8656368598586758</v>
       </c>
       <c r="D2">
-        <v>0.3511520863685402</v>
+        <v>0.3927566250147447</v>
       </c>
       <c r="E2">
         <v>1.587467513363471</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.0967423634459</v>
+        <v>0.9862376393140799</v>
       </c>
       <c r="D3">
-        <v>0.2728064410766671</v>
+        <v>0.3309833079280751</v>
       </c>
       <c r="E3">
         <v>1.587467513363471</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.5822003365340794</v>
+        <v>-0.9297158228684781</v>
       </c>
       <c r="D4">
-        <v>0.5604577936595549</v>
+        <v>0.3590725484231903</v>
       </c>
       <c r="E4">
         <v>1.587467513363471</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.3699405728038</v>
+        <v>-1.548317702376349</v>
       </c>
       <c r="D5">
-        <v>0.01782839249732771</v>
+        <v>0.1308047655289333</v>
       </c>
       <c r="E5">
         <v>1.587467513363471</v>
@@ -531,7 +528,7 @@
         <v>2.110457549806909</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.01352039248459019</v>
+        <v>0.01960575829442326</v>
       </c>
       <c r="D6">
-        <v>0.9892131514856024</v>
+        <v>0.9844724769138642</v>
       </c>
       <c r="E6">
         <v>1.393660275399341</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.784164680515841</v>
+        <v>-1.33266145232974</v>
       </c>
       <c r="D7">
-        <v>0.07445706261472007</v>
+        <v>0.1915056314261376</v>
       </c>
       <c r="E7">
         <v>1.393660275399341</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.738182629051645</v>
+        <v>-1.510536943227026</v>
       </c>
       <c r="D8">
-        <v>0.00619968050427655</v>
+        <v>0.1401453774405939</v>
       </c>
       <c r="E8">
         <v>1.393660275399341</v>
@@ -609,7 +606,7 @@
         <v>2.110457549806909</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.911589285050628</v>
+        <v>-1.528878351364493</v>
       </c>
       <c r="D9">
-        <v>0.05598555827206431</v>
+        <v>0.1355458652578285</v>
       </c>
       <c r="E9">
         <v>1.391652982219179</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.691949083690911</v>
+        <v>-1.524384082660636</v>
       </c>
       <c r="D10">
-        <v>0.007127054693247592</v>
+        <v>0.1366614875016696</v>
       </c>
       <c r="E10">
         <v>1.391652982219179</v>
@@ -661,7 +658,7 @@
         <v>2.110457549806909</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.496563890128287</v>
+        <v>-1.312714718197064</v>
       </c>
       <c r="D11">
-        <v>0.1345694006109486</v>
+        <v>0.1980713222591872</v>
       </c>
       <c r="E11">
         <v>1.714592574899461</v>
